--- a/Aion/GrafikProjekt.xlsx
+++ b/Aion/GrafikProjekt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Desktop\Aion\Aion\Aion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F0DB1F-532B-4766-AC08-FCD7A3AC75E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B29FBF-F5F7-4D2D-B784-FE5E3D3275B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8BE77C33-869C-46E1-A4EE-5134DCA3480C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="127">
   <si>
     <t>Grafik</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Work</t>
   </si>
   <si>
-    <t>Shift</t>
-  </si>
-  <si>
     <t>VacationShedule</t>
   </si>
   <si>
@@ -404,6 +401,21 @@
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>Entries</t>
+  </si>
+  <si>
+    <t>isCustom</t>
+  </si>
+  <si>
+    <t>isVisible</t>
+  </si>
+  <si>
+    <t>SetValue</t>
+  </si>
+  <si>
+    <t>Wpisuje wartość</t>
   </si>
 </sst>
 </file>
@@ -820,7 +832,7 @@
   <dimension ref="B1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +855,7 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -862,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -873,13 +885,13 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>3</v>
@@ -892,16 +904,16 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>4</v>
@@ -915,13 +927,13 @@
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>5</v>
@@ -932,18 +944,18 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>7</v>
@@ -953,20 +965,20 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -976,39 +988,39 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="6"/>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="6"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="5"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1018,7 +1030,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="5"/>
@@ -1027,16 +1039,16 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="6" t="s">
-        <v>22</v>
+      <c r="G13" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
@@ -1046,20 +1058,20 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -1067,10 +1079,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -1078,27 +1090,27 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1254,10 +1266,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1351F4A-26DE-4C44-96F6-95A56217BBB3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,141 +1285,141 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1414,9 +1427,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1424,9 +1437,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1434,9 +1447,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1444,9 +1457,9 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1454,9 +1467,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1464,9 +1477,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1474,9 +1487,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1484,9 +1497,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1494,9 +1507,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1504,9 +1517,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1514,9 +1527,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1524,9 +1537,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1534,9 +1547,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1544,9 +1557,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1554,9 +1567,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1564,9 +1577,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1574,9 +1587,9 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1584,9 +1597,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1594,9 +1607,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1604,9 +1617,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1614,9 +1627,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1624,9 +1637,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1634,9 +1647,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1644,9 +1657,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1654,9 +1667,9 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1664,101 +1677,101 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1766,9 +1779,9 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1776,9 +1789,9 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1786,9 +1799,9 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1796,9 +1809,9 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1806,9 +1819,9 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1816,9 +1829,9 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1826,9 +1839,9 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1836,9 +1849,9 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1846,9 +1859,9 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1856,9 +1869,9 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1866,9 +1879,9 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1876,9 +1889,9 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1886,9 +1899,9 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1896,9 +1909,9 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1906,9 +1919,9 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1916,9 +1929,9 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1926,9 +1939,9 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1936,9 +1949,9 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1946,9 +1959,9 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1956,9 +1969,9 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1966,9 +1979,9 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1976,9 +1989,9 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1986,9 +1999,9 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1996,9 +2009,9 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2006,9 +2019,9 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2016,9 +2029,9 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2026,45 +2039,45 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2072,9 +2085,9 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2082,9 +2095,9 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2092,9 +2105,9 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2102,9 +2115,9 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2112,9 +2125,9 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2122,9 +2135,9 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2132,9 +2145,9 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2142,9 +2155,9 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2152,9 +2165,9 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2162,9 +2175,9 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2172,9 +2185,9 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2182,9 +2195,9 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2192,9 +2205,9 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2202,9 +2215,9 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2212,9 +2225,9 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2222,9 +2235,9 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2232,9 +2245,9 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2242,9 +2255,9 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2252,9 +2265,9 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2262,9 +2275,9 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2272,9 +2285,9 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2282,9 +2295,9 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2292,9 +2305,9 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2302,9 +2315,9 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2312,9 +2325,9 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2322,9 +2335,9 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2332,9 +2345,9 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2342,9 +2355,9 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2352,9 +2365,9 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2362,9 +2375,9 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2372,45 +2385,45 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2418,9 +2431,9 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2428,9 +2441,9 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2438,9 +2451,9 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2448,9 +2461,9 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2458,9 +2471,9 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2468,9 +2481,9 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2478,9 +2491,9 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2488,9 +2501,9 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2498,9 +2511,9 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2508,9 +2521,9 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2518,9 +2531,9 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2528,9 +2541,9 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2538,9 +2551,9 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2548,9 +2561,9 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2558,9 +2571,9 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2568,9 +2581,9 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2578,9 +2591,9 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2588,9 +2601,9 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2598,9 +2611,9 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2608,9 +2621,9 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2618,9 +2631,9 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2628,9 +2641,9 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2638,9 +2651,9 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2648,9 +2661,9 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2658,9 +2671,9 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2668,9 +2681,9 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2678,9 +2691,9 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2688,9 +2701,9 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2698,9 +2711,9 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2708,9 +2721,9 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2718,117 +2731,117 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>2</v>
       </c>
@@ -2836,13 +2849,13 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>2</v>
       </c>
@@ -2850,13 +2863,13 @@
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>2</v>
       </c>
@@ -2864,13 +2877,13 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>2</v>
       </c>
@@ -2880,7 +2893,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>2</v>
       </c>
@@ -2890,7 +2903,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>2</v>
       </c>
@@ -2900,7 +2913,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>2</v>
       </c>
@@ -2910,7 +2923,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>2</v>
       </c>
@@ -2920,7 +2933,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>2</v>
       </c>
@@ -2930,7 +2943,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>2</v>
       </c>
@@ -2940,7 +2953,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>2</v>
       </c>
@@ -2950,7 +2963,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>2</v>
       </c>
@@ -2960,7 +2973,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>2</v>
       </c>
@@ -2970,7 +2983,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>2</v>
       </c>
@@ -2980,7 +2993,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>2</v>
       </c>
@@ -2990,7 +3003,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>2</v>
       </c>
@@ -3000,7 +3013,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>2</v>
       </c>
@@ -3010,7 +3023,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>2</v>
       </c>
@@ -3020,7 +3033,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>2</v>
       </c>
@@ -3030,7 +3043,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>2</v>
       </c>
@@ -3040,7 +3053,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>2</v>
       </c>
@@ -3050,7 +3063,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>2</v>
       </c>
@@ -3060,7 +3073,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>2</v>
       </c>
@@ -3070,7 +3083,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3093,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>2</v>
       </c>
@@ -3090,7 +3103,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>2</v>
       </c>
@@ -3100,7 +3113,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>2</v>
       </c>
@@ -3110,109 +3123,109 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F166" s="3" t="s">
+      <c r="C167" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C168" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3220,9 +3233,9 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3230,9 +3243,9 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3240,9 +3253,9 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3250,9 +3263,9 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3260,9 +3273,9 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3270,9 +3283,9 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3280,9 +3293,9 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3290,9 +3303,9 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3300,9 +3313,9 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3310,9 +3323,9 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3320,9 +3333,9 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3330,9 +3343,9 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3340,9 +3353,9 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3350,9 +3363,9 @@
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3360,9 +3373,9 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3370,9 +3383,9 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3380,9 +3393,9 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3390,9 +3403,9 @@
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3400,9 +3413,9 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3410,9 +3423,9 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3420,9 +3433,9 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3430,9 +3443,9 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3440,9 +3453,9 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3450,9 +3463,9 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3460,9 +3473,9 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3470,9 +3483,9 @@
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3480,59 +3493,59 @@
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="E199" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B200" s="3" t="s">
+      <c r="C200" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3540,9 +3553,9 @@
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3550,9 +3563,9 @@
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3560,9 +3573,9 @@
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3570,9 +3583,9 @@
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3580,9 +3593,9 @@
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3590,9 +3603,9 @@
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3600,9 +3613,9 @@
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3610,9 +3623,9 @@
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3620,9 +3633,9 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3630,9 +3643,9 @@
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3640,9 +3653,9 @@
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3650,9 +3663,9 @@
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3660,9 +3673,9 @@
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3670,9 +3683,9 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3680,9 +3693,9 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3690,9 +3703,9 @@
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3700,9 +3713,9 @@
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3710,9 +3723,9 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3720,9 +3733,9 @@
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3730,9 +3743,9 @@
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3740,9 +3753,9 @@
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3750,9 +3763,9 @@
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3760,9 +3773,9 @@
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -3770,9 +3783,9 @@
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -3780,9 +3793,9 @@
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -3790,9 +3803,9 @@
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -3800,9 +3813,9 @@
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -3810,9 +3823,9 @@
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -3820,9 +3833,9 @@
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -3830,155 +3843,155 @@
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="D232" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="E232" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E232" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B233" s="3" t="s">
+      <c r="C233" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D233" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E233" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B234" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F234" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F235" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -3986,9 +3999,9 @@
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3996,9 +4009,9 @@
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -4006,9 +4019,9 @@
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -4016,9 +4029,9 @@
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -4026,9 +4039,9 @@
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -4036,9 +4049,9 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -4046,9 +4059,9 @@
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -4056,9 +4069,9 @@
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -4066,9 +4079,9 @@
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -4076,9 +4089,9 @@
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -4086,9 +4099,9 @@
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -4096,9 +4109,9 @@
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -4106,9 +4119,9 @@
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -4116,9 +4129,9 @@
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -4126,9 +4139,9 @@
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -4136,9 +4149,9 @@
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -4146,9 +4159,9 @@
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -4156,9 +4169,9 @@
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -4166,9 +4179,9 @@
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -4176,9 +4189,9 @@
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -4186,9 +4199,9 @@
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -4196,9 +4209,9 @@
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -4206,9 +4219,9 @@
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -4216,9 +4229,9 @@
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -4226,57 +4239,61 @@
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D265" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E265" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F265" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F265" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E266" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -4284,9 +4301,9 @@
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -4294,9 +4311,9 @@
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -4304,9 +4321,9 @@
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -4314,9 +4331,9 @@
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -4324,9 +4341,9 @@
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -4334,9 +4351,9 @@
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -4344,9 +4361,9 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -4354,9 +4371,9 @@
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -4364,9 +4381,9 @@
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -4374,9 +4391,9 @@
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -4384,9 +4401,9 @@
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -4394,9 +4411,9 @@
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4404,9 +4421,9 @@
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -4414,9 +4431,9 @@
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -4424,9 +4441,9 @@
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -4434,9 +4451,9 @@
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -4444,9 +4461,9 @@
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -4454,9 +4471,9 @@
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -4464,9 +4481,9 @@
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -4474,9 +4491,9 @@
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -4484,9 +4501,9 @@
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -4494,9 +4511,9 @@
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -4504,9 +4521,9 @@
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -4514,9 +4531,9 @@
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -4524,9 +4541,9 @@
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -4534,9 +4551,9 @@
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -4544,9 +4561,9 @@
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -4554,9 +4571,9 @@
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -4564,9 +4581,9 @@
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -4574,101 +4591,101 @@
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="E298" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E298" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B299" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -4676,9 +4693,9 @@
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -4686,9 +4703,9 @@
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -4696,9 +4713,9 @@
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -4706,9 +4723,9 @@
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -4716,9 +4733,9 @@
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -4726,9 +4743,9 @@
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -4736,9 +4753,9 @@
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -4746,9 +4763,9 @@
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -4756,9 +4773,9 @@
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -4766,9 +4783,9 @@
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -4776,9 +4793,9 @@
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -4786,9 +4803,9 @@
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -4796,9 +4813,9 @@
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -4806,9 +4823,9 @@
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -4816,9 +4833,9 @@
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -4826,9 +4843,9 @@
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -4836,9 +4853,9 @@
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -4846,9 +4863,9 @@
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -4856,9 +4873,9 @@
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -4866,9 +4883,9 @@
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -4876,9 +4893,9 @@
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -4886,9 +4903,9 @@
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -4896,9 +4913,9 @@
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -4906,9 +4923,9 @@
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -4916,9 +4933,9 @@
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -4926,9 +4943,9 @@
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -4938,49 +4955,49 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D331" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D331" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E331" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F331" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="D332" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -4988,27 +5005,35 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B334" s="3"/>
-      <c r="C334" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -5018,7 +5043,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -5028,7 +5053,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -5038,7 +5063,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -5048,7 +5073,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -5058,7 +5083,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -5068,7 +5093,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -5078,7 +5103,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -5088,7 +5113,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -5098,7 +5123,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -5108,7 +5133,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -5118,7 +5143,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -5128,7 +5153,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -5138,7 +5163,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -5148,7 +5173,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -5158,7 +5183,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -5168,7 +5193,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -5178,7 +5203,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -5188,7 +5213,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -5198,7 +5223,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -5208,7 +5233,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -5218,7 +5243,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -5228,7 +5253,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -5238,7 +5263,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -5248,7 +5273,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -5258,7 +5283,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -5268,7 +5293,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -5278,7 +5303,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -5286,45 +5311,45 @@
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="D364" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D364" s="3" t="s">
+      <c r="E364" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B365" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E364" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B365" s="3" t="s">
+      <c r="C365" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="D365" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -5332,9 +5357,9 @@
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -5342,9 +5367,9 @@
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -5352,9 +5377,9 @@
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -5362,9 +5387,9 @@
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -5372,9 +5397,9 @@
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -5382,9 +5407,9 @@
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -5392,9 +5417,9 @@
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -5402,9 +5427,9 @@
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -5412,9 +5437,9 @@
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -5422,9 +5447,9 @@
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -5432,9 +5457,9 @@
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -5442,9 +5467,9 @@
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -5452,9 +5477,9 @@
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -5462,9 +5487,9 @@
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -5472,9 +5497,9 @@
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -5482,9 +5507,9 @@
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -5492,9 +5517,9 @@
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -5502,9 +5527,9 @@
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -5512,9 +5537,9 @@
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -5522,9 +5547,9 @@
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -5532,9 +5557,9 @@
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -5542,9 +5567,9 @@
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -5552,9 +5577,9 @@
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -5562,9 +5587,9 @@
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -5572,9 +5597,9 @@
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -5582,9 +5607,9 @@
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -5592,9 +5617,9 @@
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -5602,9 +5627,9 @@
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -5612,9 +5637,9 @@
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -5622,9 +5647,9 @@
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -5632,45 +5657,45 @@
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="D397" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D397" s="3" t="s">
+      <c r="E397" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B398" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E397" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F397" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B398" s="3" t="s">
+      <c r="C398" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C398" s="3" t="s">
+      <c r="D398" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -5678,9 +5703,9 @@
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -5688,9 +5713,9 @@
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -5698,9 +5723,9 @@
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -5708,9 +5733,9 @@
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -5718,9 +5743,9 @@
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -5728,9 +5753,9 @@
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -5738,9 +5763,9 @@
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -5748,9 +5773,9 @@
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -5758,9 +5783,9 @@
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -5768,9 +5793,9 @@
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -5778,9 +5803,9 @@
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -5788,9 +5813,9 @@
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -5798,9 +5823,9 @@
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -5808,9 +5833,9 @@
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -5818,9 +5843,9 @@
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -5828,9 +5853,9 @@
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -5838,9 +5863,9 @@
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -5848,9 +5873,9 @@
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -5858,9 +5883,9 @@
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -5868,9 +5893,9 @@
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -5878,9 +5903,9 @@
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -5888,9 +5913,9 @@
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -5898,9 +5923,9 @@
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -5908,9 +5933,9 @@
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -5918,9 +5943,9 @@
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -5928,9 +5953,9 @@
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -5938,9 +5963,9 @@
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -5948,9 +5973,9 @@
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -5958,9 +5983,9 @@
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -5968,9 +5993,9 @@
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -5978,45 +6003,45 @@
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="D430" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D430" s="3" t="s">
+      <c r="E430" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B431" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E430" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F430" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B431" s="3" t="s">
+      <c r="C431" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="D431" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -6024,9 +6049,9 @@
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -6034,9 +6059,9 @@
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -6044,9 +6069,9 @@
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -6054,9 +6079,9 @@
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -6064,9 +6089,9 @@
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -6074,9 +6099,9 @@
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -6084,9 +6109,9 @@
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -6094,9 +6119,9 @@
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -6104,9 +6129,9 @@
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -6114,9 +6139,9 @@
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -6124,9 +6149,9 @@
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -6134,9 +6159,9 @@
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -6144,9 +6169,9 @@
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -6154,9 +6179,9 @@
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -6164,9 +6189,9 @@
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -6174,9 +6199,9 @@
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -6184,9 +6209,9 @@
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -6194,9 +6219,9 @@
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -6204,9 +6229,9 @@
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -6214,9 +6239,9 @@
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -6224,9 +6249,9 @@
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -6234,9 +6259,9 @@
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -6244,9 +6269,9 @@
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -6254,9 +6279,9 @@
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -6264,9 +6289,9 @@
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -6274,9 +6299,9 @@
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -6284,9 +6309,9 @@
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -6294,9 +6319,9 @@
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -6304,9 +6329,9 @@
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -6314,9 +6339,9 @@
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -6324,45 +6349,45 @@
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B463" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="D463" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D463" s="3" t="s">
+      <c r="E463" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B464" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E463" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F463" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B464" s="3" t="s">
+      <c r="C464" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="D464" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -6370,9 +6395,9 @@
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -6380,9 +6405,9 @@
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -6390,9 +6415,9 @@
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -6400,9 +6425,9 @@
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -6410,9 +6435,9 @@
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -6420,9 +6445,9 @@
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -6430,9 +6455,9 @@
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -6440,9 +6465,9 @@
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -6450,9 +6475,9 @@
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -6460,9 +6485,9 @@
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -6470,9 +6495,9 @@
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -6480,9 +6505,9 @@
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -6490,9 +6515,9 @@
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -6500,9 +6525,9 @@
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -6510,9 +6535,9 @@
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -6520,9 +6545,9 @@
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -6530,9 +6555,9 @@
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -6540,9 +6565,9 @@
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -6550,9 +6575,9 @@
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -6560,9 +6585,9 @@
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -6570,9 +6595,9 @@
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -6580,9 +6605,9 @@
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -6590,9 +6615,9 @@
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -6600,9 +6625,9 @@
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -6610,9 +6635,9 @@
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -6620,9 +6645,9 @@
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -6630,9 +6655,9 @@
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -6640,9 +6665,9 @@
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -6650,9 +6675,9 @@
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -6660,9 +6685,9 @@
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -6671,7 +6696,13 @@
       <c r="F495" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F495" xr:uid="{09BFFAAA-4756-43A0-A1DB-E1329809A892}"/>
+  <autoFilter ref="A1:F495" xr:uid="{09BFFAAA-4756-43A0-A1DB-E1329809A892}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CustomValueType"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.1417322834645669" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Aion/GrafikProjekt.xlsx
+++ b/Aion/GrafikProjekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Desktop\Aion\Aion\Aion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B29FBF-F5F7-4D2D-B784-FE5E3D3275B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F6D3AD-C9CB-4483-8C0A-581D1469910D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8BE77C33-869C-46E1-A4EE-5134DCA3480C}"/>
+    <workbookView xWindow="2070" yWindow="1845" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{8BE77C33-869C-46E1-A4EE-5134DCA3480C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="145">
   <si>
     <t>Grafik</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Executed</t>
   </si>
   <si>
-    <t>Work</t>
-  </si>
-  <si>
     <t>VacationShedule</t>
   </si>
   <si>
@@ -416,6 +413,63 @@
   </si>
   <si>
     <t>Wpisuje wartość</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>ForeColor</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>BackColor</t>
+  </si>
+  <si>
+    <t>Id=new Guid,font,fore i backcolor</t>
+  </si>
+  <si>
+    <t>styletype</t>
+  </si>
+  <si>
+    <t>isSunday</t>
+  </si>
+  <si>
+    <t>isSaturday</t>
+  </si>
+  <si>
+    <t>EntryTYpe</t>
+  </si>
+  <si>
+    <t>GetValue</t>
+  </si>
+  <si>
+    <t>RemoveValue</t>
+  </si>
+  <si>
+    <t>usuwa po guidzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wyświetla wszystkie </t>
+  </si>
+  <si>
+    <t>DataSrc</t>
+  </si>
+  <si>
+    <t>binduje grida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isDayColumn </t>
   </si>
 </sst>
 </file>
@@ -829,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B1FCC1-A5E5-4E71-8C45-DBB40522BED9}">
-  <dimension ref="B1:J32"/>
+  <dimension ref="B1:I32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,19 +897,18 @@
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -866,32 +919,30 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>3</v>
@@ -900,20 +951,19 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>4</v>
@@ -921,111 +971,100 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1033,132 +1072,117 @@
       <c r="G12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1166,9 +1190,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1176,9 +1199,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1186,9 +1208,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1196,9 +1217,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1206,9 +1226,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1216,9 +1235,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1226,9 +1244,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1236,9 +1253,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1246,9 +1262,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1256,7 +1271,6 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,9 +1283,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1285,151 +1297,155 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1439,7 +1455,7 @@
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1449,7 +1465,7 @@
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1459,7 +1475,7 @@
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1469,7 +1485,7 @@
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1479,7 +1495,7 @@
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1489,7 +1505,7 @@
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1499,7 +1515,7 @@
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1509,7 +1525,7 @@
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1519,7 +1535,7 @@
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1529,7 +1545,7 @@
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1539,7 +1555,7 @@
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1549,7 +1565,7 @@
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1559,7 +1575,7 @@
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1569,7 +1585,7 @@
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1579,7 +1595,7 @@
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1589,7 +1605,7 @@
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1599,7 +1615,7 @@
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1609,7 +1625,7 @@
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1619,7 +1635,7 @@
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1629,7 +1645,7 @@
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1639,7 +1655,7 @@
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1649,7 +1665,7 @@
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1659,7 +1675,7 @@
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1669,7 +1685,7 @@
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1679,49 +1695,49 @@
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1729,13 +1745,13 @@
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1743,13 +1759,13 @@
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1757,13 +1773,13 @@
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1771,7 +1787,7 @@
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1781,7 +1797,7 @@
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1791,7 +1807,7 @@
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1801,7 +1817,7 @@
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1811,7 +1827,7 @@
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1821,7 +1837,7 @@
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1831,7 +1847,7 @@
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1841,7 +1857,7 @@
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1851,7 +1867,7 @@
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1861,7 +1877,7 @@
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1871,7 +1887,7 @@
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1881,7 +1897,7 @@
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1891,7 +1907,7 @@
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1901,7 +1917,7 @@
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1911,7 +1927,7 @@
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1921,7 +1937,7 @@
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1931,7 +1947,7 @@
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1941,7 +1957,7 @@
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1951,7 +1967,7 @@
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1961,7 +1977,7 @@
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1971,7 +1987,7 @@
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1981,7 +1997,7 @@
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1991,7 +2007,7 @@
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2001,7 +2017,7 @@
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2011,7 +2027,7 @@
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2021,7 +2037,7 @@
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2031,7 +2047,7 @@
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2041,43 +2057,43 @@
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2087,7 +2103,7 @@
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2097,7 +2113,7 @@
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2107,7 +2123,7 @@
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2117,7 +2133,7 @@
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2127,7 +2143,7 @@
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2137,7 +2153,7 @@
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2147,7 +2163,7 @@
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2157,7 +2173,7 @@
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2167,7 +2183,7 @@
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2177,7 +2193,7 @@
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2187,7 +2203,7 @@
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2197,7 +2213,7 @@
     </row>
     <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2207,7 +2223,7 @@
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2217,7 +2233,7 @@
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2227,7 +2243,7 @@
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2237,7 +2253,7 @@
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2247,7 +2263,7 @@
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2257,7 +2273,7 @@
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2267,7 +2283,7 @@
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2277,7 +2293,7 @@
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2287,7 +2303,7 @@
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2297,7 +2313,7 @@
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2307,7 +2323,7 @@
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2317,7 +2333,7 @@
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2327,7 +2343,7 @@
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2337,7 +2353,7 @@
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2347,7 +2363,7 @@
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2357,7 +2373,7 @@
     </row>
     <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2367,7 +2383,7 @@
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2377,7 +2393,7 @@
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2387,83 +2403,99 @@
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2473,7 +2505,7 @@
     </row>
     <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2483,7 +2515,7 @@
     </row>
     <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2493,7 +2525,7 @@
     </row>
     <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2503,7 +2535,7 @@
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2513,7 +2545,7 @@
     </row>
     <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2523,7 +2555,7 @@
     </row>
     <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2533,7 +2565,7 @@
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2543,7 +2575,7 @@
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2553,7 +2585,7 @@
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2563,7 +2595,7 @@
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2573,7 +2605,7 @@
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2583,7 +2615,7 @@
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2593,7 +2625,7 @@
     </row>
     <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2603,7 +2635,7 @@
     </row>
     <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2613,7 +2645,7 @@
     </row>
     <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2623,7 +2655,7 @@
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2633,7 +2665,7 @@
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2643,7 +2675,7 @@
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2653,7 +2685,7 @@
     </row>
     <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2663,7 +2695,7 @@
     </row>
     <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2673,7 +2705,7 @@
     </row>
     <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2683,7 +2715,7 @@
     </row>
     <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2693,7 +2725,7 @@
     </row>
     <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2703,7 +2735,7 @@
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2713,7 +2745,7 @@
     </row>
     <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2723,7 +2755,7 @@
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2736,19 +2768,19 @@
         <v>2</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2756,17 +2788,17 @@
         <v>2</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2774,35 +2806,35 @@
         <v>2</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2810,17 +2842,17 @@
         <v>2</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2828,17 +2860,17 @@
         <v>2</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2849,10 +2881,10 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2863,10 +2895,10 @@
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2877,10 +2909,10 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3125,71 +3157,71 @@
     </row>
     <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E166" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E167" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -3197,13 +3229,13 @@
     </row>
     <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -3211,13 +3243,13 @@
     </row>
     <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -3225,7 +3257,7 @@
     </row>
     <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3235,7 +3267,7 @@
     </row>
     <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3245,7 +3277,7 @@
     </row>
     <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3255,7 +3287,7 @@
     </row>
     <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3265,7 +3297,7 @@
     </row>
     <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3275,7 +3307,7 @@
     </row>
     <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3285,7 +3317,7 @@
     </row>
     <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3295,7 +3327,7 @@
     </row>
     <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3305,7 +3337,7 @@
     </row>
     <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3315,7 +3347,7 @@
     </row>
     <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3325,7 +3357,7 @@
     </row>
     <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3335,7 +3367,7 @@
     </row>
     <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3345,7 +3377,7 @@
     </row>
     <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3355,7 +3387,7 @@
     </row>
     <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3365,7 +3397,7 @@
     </row>
     <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3375,7 +3407,7 @@
     </row>
     <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3385,7 +3417,7 @@
     </row>
     <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3395,7 +3427,7 @@
     </row>
     <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3405,7 +3437,7 @@
     </row>
     <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3415,7 +3447,7 @@
     </row>
     <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3425,7 +3457,7 @@
     </row>
     <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3435,7 +3467,7 @@
     </row>
     <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3445,7 +3477,7 @@
     </row>
     <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3455,7 +3487,7 @@
     </row>
     <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3465,7 +3497,7 @@
     </row>
     <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3475,7 +3507,7 @@
     </row>
     <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3485,7 +3517,7 @@
     </row>
     <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3495,49 +3527,49 @@
     </row>
     <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E199" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
     <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -3545,7 +3577,7 @@
     </row>
     <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3555,7 +3587,7 @@
     </row>
     <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3565,7 +3597,7 @@
     </row>
     <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3575,7 +3607,7 @@
     </row>
     <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3585,7 +3617,7 @@
     </row>
     <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3595,7 +3627,7 @@
     </row>
     <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3605,7 +3637,7 @@
     </row>
     <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3615,7 +3647,7 @@
     </row>
     <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3625,7 +3657,7 @@
     </row>
     <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3635,7 +3667,7 @@
     </row>
     <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3645,7 +3677,7 @@
     </row>
     <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3655,7 +3687,7 @@
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3665,7 +3697,7 @@
     </row>
     <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3675,7 +3707,7 @@
     </row>
     <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3685,7 +3717,7 @@
     </row>
     <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3695,7 +3727,7 @@
     </row>
     <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3705,7 +3737,7 @@
     </row>
     <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3715,7 +3747,7 @@
     </row>
     <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3725,7 +3757,7 @@
     </row>
     <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3735,7 +3767,7 @@
     </row>
     <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3745,7 +3777,7 @@
     </row>
     <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3755,7 +3787,7 @@
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3765,7 +3797,7 @@
     </row>
     <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3775,7 +3807,7 @@
     </row>
     <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -3785,7 +3817,7 @@
     </row>
     <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -3795,7 +3827,7 @@
     </row>
     <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -3805,7 +3837,7 @@
     </row>
     <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -3815,7 +3847,7 @@
     </row>
     <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -3825,7 +3857,7 @@
     </row>
     <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -3835,7 +3867,7 @@
     </row>
     <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -3845,145 +3877,145 @@
     </row>
     <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="D232" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D232" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E232" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D233" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E233" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B234" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D235" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E235" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -3991,7 +4023,7 @@
     </row>
     <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -4001,7 +4033,7 @@
     </row>
     <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -4011,7 +4043,7 @@
     </row>
     <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -4021,7 +4053,7 @@
     </row>
     <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -4031,7 +4063,7 @@
     </row>
     <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -4041,7 +4073,7 @@
     </row>
     <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -4051,7 +4083,7 @@
     </row>
     <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -4061,7 +4093,7 @@
     </row>
     <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -4071,7 +4103,7 @@
     </row>
     <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -4081,7 +4113,7 @@
     </row>
     <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -4091,7 +4123,7 @@
     </row>
     <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -4101,7 +4133,7 @@
     </row>
     <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -4111,7 +4143,7 @@
     </row>
     <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -4121,7 +4153,7 @@
     </row>
     <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -4131,7 +4163,7 @@
     </row>
     <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -4141,7 +4173,7 @@
     </row>
     <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -4151,7 +4183,7 @@
     </row>
     <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -4161,7 +4193,7 @@
     </row>
     <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -4171,7 +4203,7 @@
     </row>
     <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -4181,7 +4213,7 @@
     </row>
     <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -4191,7 +4223,7 @@
     </row>
     <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -4201,7 +4233,7 @@
     </row>
     <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -4211,7 +4243,7 @@
     </row>
     <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -4221,7 +4253,7 @@
     </row>
     <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -4231,7 +4263,7 @@
     </row>
     <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -4241,109 +4273,137 @@
     </row>
     <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D265" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E265" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F265" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F266" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C267" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
+      <c r="E267" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
+      <c r="E268" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
     <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
     <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -4353,7 +4413,7 @@
     </row>
     <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -4363,7 +4423,7 @@
     </row>
     <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -4373,7 +4433,7 @@
     </row>
     <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -4383,7 +4443,7 @@
     </row>
     <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -4393,7 +4453,7 @@
     </row>
     <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -4403,7 +4463,7 @@
     </row>
     <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -4413,7 +4473,7 @@
     </row>
     <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4423,7 +4483,7 @@
     </row>
     <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -4433,7 +4493,7 @@
     </row>
     <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -4443,7 +4503,7 @@
     </row>
     <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -4453,7 +4513,7 @@
     </row>
     <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -4463,7 +4523,7 @@
     </row>
     <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -4473,7 +4533,7 @@
     </row>
     <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -4483,7 +4543,7 @@
     </row>
     <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -4493,7 +4553,7 @@
     </row>
     <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -4503,7 +4563,7 @@
     </row>
     <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -4513,7 +4573,7 @@
     </row>
     <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -4523,7 +4583,7 @@
     </row>
     <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -4533,7 +4593,7 @@
     </row>
     <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -4543,7 +4603,7 @@
     </row>
     <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -4553,7 +4613,7 @@
     </row>
     <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -4563,7 +4623,7 @@
     </row>
     <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -4573,7 +4633,7 @@
     </row>
     <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -4583,7 +4643,7 @@
     </row>
     <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -4593,49 +4653,49 @@
     </row>
     <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D298" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E298" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
     <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -4643,13 +4703,13 @@
     </row>
     <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -4657,13 +4717,13 @@
     </row>
     <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -4671,13 +4731,13 @@
     </row>
     <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -4685,7 +4745,7 @@
     </row>
     <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -4695,7 +4755,7 @@
     </row>
     <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -4705,7 +4765,7 @@
     </row>
     <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -4715,7 +4775,7 @@
     </row>
     <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -4725,7 +4785,7 @@
     </row>
     <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -4735,7 +4795,7 @@
     </row>
     <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -4745,7 +4805,7 @@
     </row>
     <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -4755,7 +4815,7 @@
     </row>
     <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -4765,7 +4825,7 @@
     </row>
     <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -4775,7 +4835,7 @@
     </row>
     <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -4785,7 +4845,7 @@
     </row>
     <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -4795,7 +4855,7 @@
     </row>
     <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -4805,7 +4865,7 @@
     </row>
     <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -4815,7 +4875,7 @@
     </row>
     <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -4825,7 +4885,7 @@
     </row>
     <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -4835,7 +4895,7 @@
     </row>
     <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -4845,7 +4905,7 @@
     </row>
     <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -4855,7 +4915,7 @@
     </row>
     <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -4865,7 +4925,7 @@
     </row>
     <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -4875,7 +4935,7 @@
     </row>
     <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -4885,7 +4945,7 @@
     </row>
     <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -4895,7 +4955,7 @@
     </row>
     <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -4905,7 +4965,7 @@
     </row>
     <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -4915,7 +4975,7 @@
     </row>
     <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -4925,7 +4985,7 @@
     </row>
     <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -4935,7 +4995,7 @@
     </row>
     <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -4945,7 +5005,7 @@
     </row>
     <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -4953,87 +5013,75 @@
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D331" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="E331" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B332" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E331" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B332" s="3" t="s">
+      <c r="C332" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="D332" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -5041,9 +5089,9 @@
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -5051,9 +5099,9 @@
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -5061,9 +5109,9 @@
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -5071,9 +5119,9 @@
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -5081,9 +5129,9 @@
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -5091,9 +5139,9 @@
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -5101,9 +5149,9 @@
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -5111,9 +5159,9 @@
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -5121,9 +5169,9 @@
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -5131,9 +5179,9 @@
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -5141,9 +5189,9 @@
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -5151,9 +5199,9 @@
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -5161,9 +5209,9 @@
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -5171,9 +5219,9 @@
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -5181,9 +5229,9 @@
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -5191,9 +5239,9 @@
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -5201,9 +5249,9 @@
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -5211,9 +5259,9 @@
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -5221,9 +5269,9 @@
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -5231,9 +5279,9 @@
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -5241,9 +5289,9 @@
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -5251,9 +5299,9 @@
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -5261,9 +5309,9 @@
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -5271,9 +5319,9 @@
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -5281,9 +5329,9 @@
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -5291,9 +5339,9 @@
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -5301,9 +5349,9 @@
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -5313,43 +5361,43 @@
     </row>
     <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="D364" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D364" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E364" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F364" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="D365" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
     <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -5359,7 +5407,7 @@
     </row>
     <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -5369,7 +5417,7 @@
     </row>
     <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -5379,7 +5427,7 @@
     </row>
     <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -5389,7 +5437,7 @@
     </row>
     <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -5399,7 +5447,7 @@
     </row>
     <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -5409,7 +5457,7 @@
     </row>
     <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -5419,7 +5467,7 @@
     </row>
     <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -5429,7 +5477,7 @@
     </row>
     <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -5439,7 +5487,7 @@
     </row>
     <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -5449,7 +5497,7 @@
     </row>
     <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -5459,7 +5507,7 @@
     </row>
     <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -5469,7 +5517,7 @@
     </row>
     <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -5479,7 +5527,7 @@
     </row>
     <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -5489,7 +5537,7 @@
     </row>
     <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -5499,7 +5547,7 @@
     </row>
     <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -5509,7 +5557,7 @@
     </row>
     <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -5519,7 +5567,7 @@
     </row>
     <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -5529,7 +5577,7 @@
     </row>
     <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -5539,7 +5587,7 @@
     </row>
     <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -5549,7 +5597,7 @@
     </row>
     <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -5559,7 +5607,7 @@
     </row>
     <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -5569,7 +5617,7 @@
     </row>
     <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -5579,7 +5627,7 @@
     </row>
     <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -5589,7 +5637,7 @@
     </row>
     <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -5599,7 +5647,7 @@
     </row>
     <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -5609,7 +5657,7 @@
     </row>
     <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -5619,7 +5667,7 @@
     </row>
     <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -5629,7 +5677,7 @@
     </row>
     <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -5639,7 +5687,7 @@
     </row>
     <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -5649,7 +5697,7 @@
     </row>
     <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -5659,83 +5707,99 @@
     </row>
     <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="D397" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D397" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E397" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C398" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D398" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
     <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
     <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B400" s="3"/>
-      <c r="C400" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
     <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B401" s="3"/>
-      <c r="C401" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
     <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
     <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -5745,7 +5809,7 @@
     </row>
     <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -5755,7 +5819,7 @@
     </row>
     <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -5765,7 +5829,7 @@
     </row>
     <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -5775,7 +5839,7 @@
     </row>
     <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -5785,7 +5849,7 @@
     </row>
     <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -5795,7 +5859,7 @@
     </row>
     <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -5805,7 +5869,7 @@
     </row>
     <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -5815,7 +5879,7 @@
     </row>
     <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -5825,7 +5889,7 @@
     </row>
     <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -5835,7 +5899,7 @@
     </row>
     <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -5845,7 +5909,7 @@
     </row>
     <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -5855,7 +5919,7 @@
     </row>
     <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -5865,7 +5929,7 @@
     </row>
     <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -5875,7 +5939,7 @@
     </row>
     <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -5885,7 +5949,7 @@
     </row>
     <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -5895,7 +5959,7 @@
     </row>
     <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -5905,7 +5969,7 @@
     </row>
     <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -5915,7 +5979,7 @@
     </row>
     <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -5925,7 +5989,7 @@
     </row>
     <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -5935,7 +5999,7 @@
     </row>
     <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -5945,7 +6009,7 @@
     </row>
     <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -5955,7 +6019,7 @@
     </row>
     <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -5965,7 +6029,7 @@
     </row>
     <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -5975,7 +6039,7 @@
     </row>
     <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -5985,7 +6049,7 @@
     </row>
     <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -5995,7 +6059,7 @@
     </row>
     <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -6005,43 +6069,43 @@
     </row>
     <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="D430" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D430" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E430" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F430" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F430" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="D431" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
     <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -6051,7 +6115,7 @@
     </row>
     <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -6061,7 +6125,7 @@
     </row>
     <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -6071,7 +6135,7 @@
     </row>
     <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -6081,7 +6145,7 @@
     </row>
     <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -6091,7 +6155,7 @@
     </row>
     <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -6101,7 +6165,7 @@
     </row>
     <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -6111,7 +6175,7 @@
     </row>
     <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -6121,7 +6185,7 @@
     </row>
     <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -6131,7 +6195,7 @@
     </row>
     <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -6141,7 +6205,7 @@
     </row>
     <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -6151,7 +6215,7 @@
     </row>
     <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -6161,7 +6225,7 @@
     </row>
     <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -6171,7 +6235,7 @@
     </row>
     <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -6181,7 +6245,7 @@
     </row>
     <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -6191,7 +6255,7 @@
     </row>
     <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -6201,7 +6265,7 @@
     </row>
     <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -6211,7 +6275,7 @@
     </row>
     <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -6221,7 +6285,7 @@
     </row>
     <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -6231,7 +6295,7 @@
     </row>
     <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -6241,7 +6305,7 @@
     </row>
     <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -6251,7 +6315,7 @@
     </row>
     <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -6261,7 +6325,7 @@
     </row>
     <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -6271,7 +6335,7 @@
     </row>
     <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -6281,7 +6345,7 @@
     </row>
     <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -6291,7 +6355,7 @@
     </row>
     <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -6301,7 +6365,7 @@
     </row>
     <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -6311,7 +6375,7 @@
     </row>
     <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -6321,7 +6385,7 @@
     </row>
     <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -6331,7 +6395,7 @@
     </row>
     <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -6341,7 +6405,7 @@
     </row>
     <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -6351,43 +6415,43 @@
     </row>
     <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B463" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="D463" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D463" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E463" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F463" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F463" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B464" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C464" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="D464" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
     </row>
     <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -6397,7 +6461,7 @@
     </row>
     <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -6407,7 +6471,7 @@
     </row>
     <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -6417,7 +6481,7 @@
     </row>
     <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -6427,7 +6491,7 @@
     </row>
     <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -6437,7 +6501,7 @@
     </row>
     <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -6447,7 +6511,7 @@
     </row>
     <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -6457,7 +6521,7 @@
     </row>
     <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -6467,7 +6531,7 @@
     </row>
     <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -6477,7 +6541,7 @@
     </row>
     <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -6487,7 +6551,7 @@
     </row>
     <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -6497,7 +6561,7 @@
     </row>
     <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -6507,7 +6571,7 @@
     </row>
     <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -6517,7 +6581,7 @@
     </row>
     <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -6527,7 +6591,7 @@
     </row>
     <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -6537,7 +6601,7 @@
     </row>
     <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -6547,7 +6611,7 @@
     </row>
     <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -6557,7 +6621,7 @@
     </row>
     <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -6567,7 +6631,7 @@
     </row>
     <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -6577,7 +6641,7 @@
     </row>
     <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -6587,7 +6651,7 @@
     </row>
     <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -6597,7 +6661,7 @@
     </row>
     <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -6607,7 +6671,7 @@
     </row>
     <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -6617,7 +6681,7 @@
     </row>
     <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -6627,7 +6691,7 @@
     </row>
     <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -6637,7 +6701,7 @@
     </row>
     <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -6647,7 +6711,7 @@
     </row>
     <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -6657,7 +6721,7 @@
     </row>
     <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -6667,7 +6731,7 @@
     </row>
     <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -6677,7 +6741,7 @@
     </row>
     <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -6687,7 +6751,7 @@
     </row>
     <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -6697,9 +6761,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F495" xr:uid="{09BFFAAA-4756-43A0-A1DB-E1329809A892}">
-    <filterColumn colId="0">
+    <filterColumn colId="4">
       <filters>
-        <filter val="CustomValueType"/>
+        <filter val="Norm"/>
       </filters>
     </filterColumn>
   </autoFilter>
